--- a/athlete_data.xlsx
+++ b/athlete_data.xlsx
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>

--- a/athlete_data.xlsx
+++ b/athlete_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR32"/>
+  <dimension ref="A1:AR82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4655,6 +4655,6488 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15729721151</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Evening Cycling</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45907.80565972222</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5612.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1063</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1063</v>
+      </c>
+      <c r="K33" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="N33" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>a15729721151</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>174</v>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>garmin_ping_477739320654</t>
+        </is>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2" t="n">
+        <v>45907.57649305555</v>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15729493134</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Evening Cycling</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45907.775</v>
+      </c>
+      <c r="G34" t="n">
+        <v>21083.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2625</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2625</v>
+      </c>
+      <c r="K34" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="N34" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>a15729493134</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>184</v>
+      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>garmin_ping_477734159758</t>
+        </is>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="2" t="n">
+        <v>45907.54583333333</v>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15728837275</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Afternoon Cycling</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45907.74809027778</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15308.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1773</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1773</v>
+      </c>
+      <c r="K35" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="N35" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>a15728837275</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>176</v>
+      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>garmin_ping_477719513807</t>
+        </is>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="2" t="n">
+        <v>45907.51892361111</v>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15632881750</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45899.26396990741</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87670.60000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14065</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16462</v>
+      </c>
+      <c r="K36" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="N36" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>79</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>14</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>a15632881750</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>177</v>
+      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>garmin_ping_474837131681</t>
+        </is>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2" t="n">
+        <v>45899.03480324074</v>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15633199793</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45899.26003472223</v>
+      </c>
+      <c r="G37" t="n">
+        <v>102136</v>
+      </c>
+      <c r="H37" t="n">
+        <v>102.14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16149</v>
+      </c>
+      <c r="J37" t="n">
+        <v>22542</v>
+      </c>
+      <c r="K37" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="M37" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>91</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>14</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>a15633199793</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>2bdcb344-7f40-415e-9ab6-b9a6414e1700-activity.fit</t>
+        </is>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="2" t="n">
+        <v>45899.03086805555</v>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15599954885</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45896.21298611111</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50830.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>50.83</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8807</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10119</v>
+      </c>
+      <c r="K38" t="n">
+        <v>369</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="M38" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="N38" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>12</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>a15599954885</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>168</v>
+      </c>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>garmin_ping_473779866831</t>
+        </is>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2" t="n">
+        <v>45895.98381944445</v>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15587672542</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Morning Walk</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45895.33069444444</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1003.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>663</v>
+      </c>
+      <c r="J39" t="n">
+        <v>663</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N39" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>a15587672542</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>125</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>garmin_ping_473428849895</t>
+        </is>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2" t="n">
+        <v>45895.10152777778</v>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15565120364</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45893.33275462963</v>
+      </c>
+      <c r="G40" t="n">
+        <v>25627.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4308</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6313</v>
+      </c>
+      <c r="K40" t="n">
+        <v>205</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>84</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>a15565120364</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>garmin_ping_472768668470</t>
+        </is>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2" t="n">
+        <v>45893.10358796296</v>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15565116539</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45893.25888888889</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15689.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2855</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3087</v>
+      </c>
+      <c r="K41" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>a15565116539</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>135</v>
+      </c>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>garmin_ping_472768394247</t>
+        </is>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="2" t="n">
+        <v>45893.02972222222</v>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15547144480</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Afternoon Ride</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45891.72850694445</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24132.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4182</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6715</v>
+      </c>
+      <c r="K42" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="M42" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>a15547144480</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>119.3</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>140</v>
+      </c>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>garmin_ping_472216764021</t>
+        </is>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="2" t="n">
+        <v>45891.49934027778</v>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>15531692027</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45890.33063657407</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20133.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3230</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5618</v>
+      </c>
+      <c r="K43" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>10</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>a15531692027</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>garmin_ping_471727504959</t>
+        </is>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="2" t="n">
+        <v>45890.10146990741</v>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15507751613</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45888.31334490741</v>
+      </c>
+      <c r="G44" t="n">
+        <v>38999.8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>39</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3964</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5853</v>
+      </c>
+      <c r="K44" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="M44" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>111</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>10</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>a15507751613</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>8232e721-70a0-47a9-8830-b12d35749079-activity.fit</t>
+        </is>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="2" t="n">
+        <v>45888.08417824074</v>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15501692361</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45887.87228009259</v>
+      </c>
+      <c r="G45" t="n">
+        <v>942.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>102</v>
+      </c>
+      <c r="J45" t="n">
+        <v>102</v>
+      </c>
+      <c r="K45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>a15501692361</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>109</v>
+      </c>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>garmin_ping_470860894230</t>
+        </is>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="2" t="n">
+        <v>45887.64311342593</v>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15501444355</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Evening Ride</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45887.79960648148</v>
+      </c>
+      <c r="G46" t="n">
+        <v>18643.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3115</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4055</v>
+      </c>
+      <c r="K46" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M46" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>8</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>a15501444355</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>157</v>
+      </c>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>garmin_ping_470854122801</t>
+        </is>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="2" t="n">
+        <v>45887.57043981482</v>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15463116443</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45884.2915162037</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12606.9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2923</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10396</v>
+      </c>
+      <c r="K47" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M47" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>a15463116443</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>138</v>
+      </c>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>garmin_ping_469671304269</t>
+        </is>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="2" t="n">
+        <v>45884.06234953704</v>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>15463108927</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Evening Workout</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45883.79304398148</v>
+      </c>
+      <c r="G48" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1447</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1447</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N48" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>a15463108927</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>152</v>
+      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>garmin_ping_469670669847</t>
+        </is>
+      </c>
+      <c r="AH48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="2" t="n">
+        <v>45883.56387731482</v>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Calcutta</t>
+        </is>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15453752010</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Evening Workout</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45882.80795138889</v>
+      </c>
+      <c r="G49" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I49" t="n">
+        <v>381</v>
+      </c>
+      <c r="J49" t="n">
+        <v>381</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N49" t="n">
+        <v>56</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>a15453752010</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>147</v>
+      </c>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>garmin_ping_469404947097</t>
+        </is>
+      </c>
+      <c r="AH49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="2" t="n">
+        <v>45882.57878472222</v>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Calcutta</t>
+        </is>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15429160113</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45881.3071412037</v>
+      </c>
+      <c r="G50" t="n">
+        <v>24968.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4242</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6082</v>
+      </c>
+      <c r="K50" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="M50" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>11</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>a15429160113</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>164</v>
+      </c>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>garmin_ping_468689665852</t>
+        </is>
+      </c>
+      <c r="AH50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="2" t="n">
+        <v>45881.07797453704</v>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>15383360348</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45877.30881944444</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9469</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1828</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K51" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>9</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>a15383360348</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>159</v>
+      </c>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>garmin_ping_467261975661</t>
+        </is>
+      </c>
+      <c r="AH51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="2" t="n">
+        <v>45877.07965277778</v>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>15379148517</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Evening Workout</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Workout</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45876.76693287037</v>
+      </c>
+      <c r="G52" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1878</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1878</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N52" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>a15379148517</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>152</v>
+      </c>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>garmin_ping_467137541034</t>
+        </is>
+      </c>
+      <c r="AH52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="2" t="n">
+        <v>45876.53776620371</v>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Calcutta</t>
+        </is>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15325253404</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45872.24511574074</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21621.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3301</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4988</v>
+      </c>
+      <c r="K53" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="M53" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>98</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>12</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>a15325253404</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>168</v>
+      </c>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>garmin_ping_465534110932</t>
+        </is>
+      </c>
+      <c r="AH53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="2" t="n">
+        <v>45872.01594907408</v>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>18871501</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Swapnil Marathe</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15313636787</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Morning Ride</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45871.19170138889</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24457.3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4406</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5642</v>
+      </c>
+      <c r="K54" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>14</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>a15313636787</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>b16383516</t>
+        </is>
+      </c>
+      <c r="AB54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>149</v>
+      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>garmin_ping_465186599984</t>
+        </is>
+      </c>
+      <c r="AH54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="2" t="n">
+        <v>45870.96253472222</v>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15792365890</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Early Morning Ride 
+Total = 60620
+Total Ride 822 in 1413 Days
+50=576,       100=75, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45913.1541087963</v>
+      </c>
+      <c r="G55" t="n">
+        <v>116570</v>
+      </c>
+      <c r="H55" t="n">
+        <v>116.57</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16733</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21310</v>
+      </c>
+      <c r="K55" t="n">
+        <v>450</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>40</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>a15792365890</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>garmin_ping_479703795811</t>
+        </is>
+      </c>
+      <c r="AH55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="2" t="n">
+        <v>45912.92494212963</v>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15770856875</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 60504
+Total Ride 821 in 1411 Days
+50=576,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45911.22702546296</v>
+      </c>
+      <c r="G56" t="n">
+        <v>56284.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>56.28</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8714</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10470</v>
+      </c>
+      <c r="K56" t="n">
+        <v>206</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="M56" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>88</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>a15770856875</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>garmin_ping_478989364605</t>
+        </is>
+      </c>
+      <c r="AH56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="2" t="n">
+        <v>45910.9978587963</v>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>15759371557</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 60447
+Total Ride 820 in 1410 Days
+50=575,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45910.21930555555</v>
+      </c>
+      <c r="G57" t="n">
+        <v>60174.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>60.17</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8720</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10259</v>
+      </c>
+      <c r="K57" t="n">
+        <v>224</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M57" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>88</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>a15759371557</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>garmin_ping_478634400225</t>
+        </is>
+      </c>
+      <c r="AH57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="2" t="n">
+        <v>45909.99013888889</v>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>15747017198</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 60387
+Total Ride 819 in 1409 Days
+50=574,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45909.22083333333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>57339.3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8721</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9104</v>
+      </c>
+      <c r="K58" t="n">
+        <v>358</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="M58" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>84</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>a15747017198</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>garmin_ping_478277915640</t>
+        </is>
+      </c>
+      <c r="AH58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="2" t="n">
+        <v>45908.99166666667</v>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>15735676772</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 60330
+Total Ride 818 in 1408 Days
+50=573,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45908.21979166667</v>
+      </c>
+      <c r="G59" t="n">
+        <v>60460</v>
+      </c>
+      <c r="H59" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9212</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9487</v>
+      </c>
+      <c r="K59" t="n">
+        <v>388</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="n">
+        <v>3</v>
+      </c>
+      <c r="W59" t="n">
+        <v>92</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>a15735676772</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>garmin_ping_477918414550</t>
+        </is>
+      </c>
+      <c r="AH59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="2" t="n">
+        <v>45907.990625</v>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>15716779726</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45906.76905092593</v>
+      </c>
+      <c r="G60" t="n">
+        <v>853.1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I60" t="n">
+        <v>698</v>
+      </c>
+      <c r="J60" t="n">
+        <v>850</v>
+      </c>
+      <c r="K60" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N60" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>51</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>a15716779726</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>9919fdaa-e86c-42bf-8c20-5fe4fc52970e-activity.fit</t>
+        </is>
+      </c>
+      <c r="AH60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="2" t="n">
+        <v>45906.53988425926</v>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>15715229167</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Afternoon Walk</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45906.67862268518</v>
+      </c>
+      <c r="G61" t="n">
+        <v>795.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>582</v>
+      </c>
+      <c r="J61" t="n">
+        <v>637</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N61" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>47</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>a15715229167</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>6f66b2d5-77d9-4da0-ac09-1dd963abb3da-activity.fit</t>
+        </is>
+      </c>
+      <c r="AH61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="2" t="n">
+        <v>45906.44945601852</v>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15701550548</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>पाळधी गणपती मंदिर सायकल फेरी 
+Total = 60269
+Total Ride 817 in 1406 Days
+50=572,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45905.22744212963</v>
+      </c>
+      <c r="G62" t="n">
+        <v>52598.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9215</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11947</v>
+      </c>
+      <c r="K62" t="n">
+        <v>181</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>102</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>a15701550548</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>garmin_ping_476891606936</t>
+        </is>
+      </c>
+      <c r="AH62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="2" t="n">
+        <v>45904.99827546296</v>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>15643743577</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Morning Ride with Prataprao Patil Sir 
+Total = 60217
+Total Ride 816 in 1401 Days
+50=571,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45900.20175925926</v>
+      </c>
+      <c r="G63" t="n">
+        <v>55961.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9971</v>
+      </c>
+      <c r="J63" t="n">
+        <v>16931</v>
+      </c>
+      <c r="K63" t="n">
+        <v>371</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="M63" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>83</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>a15643743577</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>garmin_ping_475149188542</t>
+        </is>
+      </c>
+      <c r="AH63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="2" t="n">
+        <v>45899.9725925926</v>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>15632562176</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>नॅशनल स्पोर्ट्स डे निमित्त सायकल फेरी 
+Total = 60161
+Total Ride 815 in 1400 Days
+50=570,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45899.24248842592</v>
+      </c>
+      <c r="G64" t="n">
+        <v>58239.1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10275</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13364</v>
+      </c>
+      <c r="K64" t="n">
+        <v>360</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="M64" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>92</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>a15632562176</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>garmin_ping_474811031886</t>
+        </is>
+      </c>
+      <c r="AH64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="2" t="n">
+        <v>45899.01332175926</v>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>15611748233</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Morning Ride
+Total = 60103
+Total Ride 814 in 1398 Days
+50=569,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45897.24239583333</v>
+      </c>
+      <c r="G65" t="n">
+        <v>54138.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8626</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9578</v>
+      </c>
+      <c r="K65" t="n">
+        <v>333</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="M65" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>89</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>a15611748233</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>garmin_ping_474129983982</t>
+        </is>
+      </c>
+      <c r="AH65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="2" t="n">
+        <v>45897.01322916667</v>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>15600481564</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>*गणेश चतुर्थी च्या हार्दिक शुभेच्छा* 
+श्री क्षेत्र पद्मालाय सायकल फेरी 
+Total = 60048
+Total Ride 813 in 1397 Days
+50=568,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45896.20060185185</v>
+      </c>
+      <c r="G66" t="n">
+        <v>67397.39999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13252</v>
+      </c>
+      <c r="J66" t="n">
+        <v>20525</v>
+      </c>
+      <c r="K66" t="n">
+        <v>468</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="M66" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>95</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>a15600481564</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>garmin_ping_473808985487</t>
+        </is>
+      </c>
+      <c r="AH66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="2" t="n">
+        <v>45895.97143518519</v>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>15576518701</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>श्री मोहन गाडे सरांची जळगाव ते सातारा सेल्फ सपोर्ट राईड करून जळगाव मध्ये आगमन झाल्या वर त्याचे स्वागत करून रेल्वे स्टेशन ते सागर पार्क सायकल फेरी 
+Total = 59981
+Total Ride 812 in 1395 Days
+50=567,       100=74, 
+150=14,         200=9,
+250=1,         300=9</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45894.23476851852</v>
+      </c>
+      <c r="G67" t="n">
+        <v>53539.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8673</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12965</v>
+      </c>
+      <c r="K67" t="n">
+        <v>288</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="M67" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>99</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>a15576518701</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>garmin_ping_473084915376</t>
+        </is>
+      </c>
+      <c r="AH67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="2" t="n">
+        <v>45894.00560185185</v>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>15564734276</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>*फिट इंडिया मोहेमा अंतर्गत संडे ऑन सायकल* ही विशेष मोहिम जळगाव पोलीस मुख्यालय व जळगाव सायकलिक जळगाव यांच्या संयुक्त सहभाग गाणे जागा पोलीस मुख्यालय ते कानडा रिटर्न
+Total = 59928
+Total Ride 811 in 1394 Days
+50=566,       100=74, 
+150=14,         200=9,
+250=</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45893.22296296297</v>
+      </c>
+      <c r="G68" t="n">
+        <v>51468.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8853</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14114</v>
+      </c>
+      <c r="K68" t="n">
+        <v>271</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M68" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="n">
+        <v>1</v>
+      </c>
+      <c r="W68" t="n">
+        <v>79</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>a15564734276</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>garmin_ping_472741064311</t>
+        </is>
+      </c>
+      <c r="AH68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="2" t="n">
+        <v>45892.99379629629</v>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>15553110043</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Morning Ride
+Total = 59876
+Total Ride 810 in 1393 Days
+50=565,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45892.24240740741</v>
+      </c>
+      <c r="G69" t="n">
+        <v>55140.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9274</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11123</v>
+      </c>
+      <c r="K69" t="n">
+        <v>329</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M69" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>99</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>a15553110043</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>garmin_ping_472399272895</t>
+        </is>
+      </c>
+      <c r="AH69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="2" t="n">
+        <v>45892.01324074074</v>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>15543465659</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>मोहन गाडे साहेब यांची जळगाव ते सातारा राईड सपोर्ट साठी जळगाव ते अजिंठा घाट सायकल फेरी 
+Total = 59821
+Total Ride 809 in 1392 Days
+50=564,       100=74, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45891.16152777777</v>
+      </c>
+      <c r="G70" t="n">
+        <v>123943</v>
+      </c>
+      <c r="H70" t="n">
+        <v>123.94</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21846</v>
+      </c>
+      <c r="J70" t="n">
+        <v>28995</v>
+      </c>
+      <c r="K70" t="n">
+        <v>795</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="M70" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>87</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>a15543465659</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>garmin_ping_472108997197</t>
+        </is>
+      </c>
+      <c r="AH70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="2" t="n">
+        <v>45890.93236111111</v>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>15531695197</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>कामिनी मॅडम च्या वाढदिवसा निमित्त जळगाव ते तरसोद सायकल फेरी 
+Total = 59697
+Total Ride 808 in 1391 Days
+50=564,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45890.24262731482</v>
+      </c>
+      <c r="G71" t="n">
+        <v>60197.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10372</v>
+      </c>
+      <c r="J71" t="n">
+        <v>13341</v>
+      </c>
+      <c r="K71" t="n">
+        <v>239</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M71" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>70</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>86</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>a15531695197</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>garmin_ping_471727752968</t>
+        </is>
+      </c>
+      <c r="AH71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="2" t="n">
+        <v>45890.01346064815</v>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>15513650473</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Evening Walk</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Walk</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45888.81989583333</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4497.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3266</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4403</v>
+      </c>
+      <c r="K72" t="n">
+        <v>25</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N72" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>62</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>a15513650473</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>642fd17f-ba84-47a2-a010-20295e77ce3b-activity.fit</t>
+        </is>
+      </c>
+      <c r="AH72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="2" t="n">
+        <v>45888.59072916667</v>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>15507493443</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nonstop Morning Ride 
+Total = 59637
+Total Ride 807 in 1389 Days
+50=563,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45888.22453703704</v>
+      </c>
+      <c r="G73" t="n">
+        <v>57330</v>
+      </c>
+      <c r="H73" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9256</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9256</v>
+      </c>
+      <c r="K73" t="n">
+        <v>332</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="M73" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>75</v>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>83</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>a15507493443</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>garmin_ping_471021964913</t>
+        </is>
+      </c>
+      <c r="AH73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="2" t="n">
+        <v>45887.99537037037</v>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>15439941685</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Nonstop Morning Ride 
+Total = 59579
+Total Ride 806 in 1383 Days
+50=562,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45882.24258101852</v>
+      </c>
+      <c r="G74" t="n">
+        <v>52176.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7908</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7908</v>
+      </c>
+      <c r="K74" t="n">
+        <v>311</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
+      <c r="W74" t="n">
+        <v>91</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>a15439941685</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>garmin_ping_468972485922</t>
+        </is>
+      </c>
+      <c r="AH74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="2" t="n">
+        <v>45882.01341435185</v>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>15427989355</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 59527
+Total Ride 805 in 1382 Days
+50=561,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45881.24650462963</v>
+      </c>
+      <c r="G75" t="n">
+        <v>51677.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>51.68</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9336</v>
+      </c>
+      <c r="J75" t="n">
+        <v>10177</v>
+      </c>
+      <c r="K75" t="n">
+        <v>182</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>100</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>a15427989355</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>garmin_ping_468631292795</t>
+        </is>
+      </c>
+      <c r="AH75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="2" t="n">
+        <v>45881.01733796296</v>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>15416818224</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Morning Ride 
+Total = 59476
+Total Ride 804 in 1381 Days
+50=560,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45880.24763888889</v>
+      </c>
+      <c r="G76" t="n">
+        <v>52678.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8792</v>
+      </c>
+      <c r="J76" t="n">
+        <v>10657</v>
+      </c>
+      <c r="K76" t="n">
+        <v>307</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="M76" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>88</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>a15416818224</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>garmin_ping_468283587246</t>
+        </is>
+      </c>
+      <c r="AH76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="2" t="n">
+        <v>45880.01847222223</v>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>15405821091</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>लाडकेश्वर महादेव मंदिर लाडली सायकल फेरी 
+Total = 59423
+Total Ride 803 in 1380 Days
+50=559,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45879.2393287037</v>
+      </c>
+      <c r="G77" t="n">
+        <v>61174.6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="I77" t="n">
+        <v>11085</v>
+      </c>
+      <c r="J77" t="n">
+        <v>17227</v>
+      </c>
+      <c r="K77" t="n">
+        <v>289</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M77" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>63</v>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>83</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>a15405821091</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>garmin_ping_467958785151</t>
+        </is>
+      </c>
+      <c r="AH77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="2" t="n">
+        <v>45879.01016203704</v>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>15394952087</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>रक्षाबंधन निमित्त दिपस्तंभ  फाऊंडेशन मनोबल येथे रक्षाबंधन साजरा करण्यात आला 
+Total = 59362
+Total Ride 802 in 1379 Days
+50=558,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45878.20552083333</v>
+      </c>
+      <c r="G78" t="n">
+        <v>82298.7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13298</v>
+      </c>
+      <c r="J78" t="n">
+        <v>27665</v>
+      </c>
+      <c r="K78" t="n">
+        <v>488</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="M78" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" t="n">
+        <v>73</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>a15394952087</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>garmin_ping_467657456067</t>
+        </is>
+      </c>
+      <c r="AH78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="2" t="n">
+        <v>45877.97635416667</v>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>15359965311</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>जळगाव - नेरी - देवपिंप्री - जळगाव  सायकल फेरी 
+Total = 59279
+Total Ride 801 in 1376 Days
+50=557,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45875.23996527777</v>
+      </c>
+      <c r="G79" t="n">
+        <v>57277.4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>57.28</v>
+      </c>
+      <c r="I79" t="n">
+        <v>8770</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8834</v>
+      </c>
+      <c r="K79" t="n">
+        <v>331</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M79" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="n">
+        <v>1</v>
+      </c>
+      <c r="W79" t="n">
+        <v>100</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>a15359965311</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>garmin_ping_466579554484</t>
+        </is>
+      </c>
+      <c r="AH79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="2" t="n">
+        <v>45875.01079861111</v>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15326003080</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>माननीय प्रतापराव पाटील सरांच्या वाढदिवसा निमित्त  76 कि मी जळगाव - वावडदा - म्हसवाद-एरंडोल - पाळधी - जळगाव सायकल फेरी 
+Total = 59222
+Total Ride 800 in 1373 Days
+50=556,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45872.22403935185</v>
+      </c>
+      <c r="G80" t="n">
+        <v>76588.60000000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>76.59</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16356</v>
+      </c>
+      <c r="J80" t="n">
+        <v>21148</v>
+      </c>
+      <c r="K80" t="n">
+        <v>357</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M80" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>110</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>a15326003080</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>garmin_ping_465572903933</t>
+        </is>
+      </c>
+      <c r="AH80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="2" t="n">
+        <v>45871.99487268519</v>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>15314648646</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>राजू भाऊंच्या वाढदिवसा निमित्त91  कि मी जळगाव - भोकर - रामेश्वरम सायकल फेरी 
+Total = 59146
+Total Ride 799 in 1372 Days
+50=555,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45871.2003587963</v>
+      </c>
+      <c r="G81" t="n">
+        <v>92611.10000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>92.61</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15657</v>
+      </c>
+      <c r="J81" t="n">
+        <v>19371</v>
+      </c>
+      <c r="K81" t="n">
+        <v>360</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="M81" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>92</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>a15314648646</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>garmin_ping_465225329317</t>
+        </is>
+      </c>
+      <c r="AH81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="2" t="n">
+        <v>45870.97119212963</v>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ81" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>94652589</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>*3SR* Nilesh Chaudhari</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>15312819982</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>रुपेश भाऊंच्या वाढदिवसा निमित्त 55.55 कि मी सायकल फेरी 
+Total = 59053
+Total Ride 798 in 1371 Days
+50=554,       100=73, 
+150=14,         200=9,
+250=1,         300=9,
+350=1,          400=4,
+600=3,        1000= 1
+1200=1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Ride</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45870.24130787037</v>
+      </c>
+      <c r="G82" t="n">
+        <v>55554.6</v>
+      </c>
+      <c r="H82" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10063</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12701</v>
+      </c>
+      <c r="K82" t="n">
+        <v>327</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M82" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>60</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>25</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>a15312819982</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>garmin_ping_465158867481</t>
+        </is>
+      </c>
+      <c r="AH82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>everyone</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="2" t="n">
+        <v>45870.0121412037</v>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>(GMT+05:30) Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="AQ82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
